--- a/Code/Results/Cases/Case_3_244/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_244/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.74700672002598</v>
+        <v>15.51809326405486</v>
       </c>
       <c r="C2">
-        <v>15.6274853815489</v>
+        <v>11.44037335774968</v>
       </c>
       <c r="D2">
-        <v>3.848290262303127</v>
+        <v>5.136884144943457</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>23.06135428283896</v>
+        <v>27.18648119850263</v>
       </c>
       <c r="G2">
-        <v>31.885537528835</v>
+        <v>34.07047412151667</v>
       </c>
       <c r="H2">
-        <v>10.26516567532141</v>
+        <v>15.35671303431407</v>
       </c>
       <c r="I2">
-        <v>15.62592159065875</v>
+        <v>23.87802735514514</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.72622569508884</v>
+        <v>10.88501830446585</v>
       </c>
       <c r="M2">
-        <v>12.47316786228355</v>
+        <v>15.25745719148344</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.27305221916299</v>
+        <v>14.97142024420893</v>
       </c>
       <c r="C3">
-        <v>14.82343313451153</v>
+        <v>11.07997703539071</v>
       </c>
       <c r="D3">
-        <v>3.847751433230439</v>
+        <v>5.135804338773383</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>22.26468409069339</v>
+        <v>27.14869940853782</v>
       </c>
       <c r="G3">
-        <v>30.6114612861405</v>
+        <v>33.96289227374837</v>
       </c>
       <c r="H3">
-        <v>10.18445461628075</v>
+        <v>15.4024602874613</v>
       </c>
       <c r="I3">
-        <v>15.71463923755138</v>
+        <v>23.99662326291098</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.679307851941868</v>
+        <v>10.90430630106511</v>
       </c>
       <c r="M3">
-        <v>11.87203834210363</v>
+        <v>15.1571382546325</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.31611711575352</v>
+        <v>14.62759853051488</v>
       </c>
       <c r="C4">
-        <v>14.30807094533807</v>
+        <v>10.8507329561723</v>
       </c>
       <c r="D4">
-        <v>3.847990177371174</v>
+        <v>5.135383349924752</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>21.79165897905374</v>
+        <v>27.13541968662009</v>
       </c>
       <c r="G4">
-        <v>29.8524014734955</v>
+        <v>33.91198337104156</v>
       </c>
       <c r="H4">
-        <v>10.14593166752257</v>
+        <v>15.43436440037365</v>
       </c>
       <c r="I4">
-        <v>15.78985044721362</v>
+        <v>24.07591398217671</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.654232125283988</v>
+        <v>10.91780819101911</v>
       </c>
       <c r="M4">
-        <v>11.49273320665817</v>
+        <v>15.09772482070409</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.91299821224739</v>
+        <v>14.48565241196841</v>
       </c>
       <c r="C5">
-        <v>14.09270497999945</v>
+        <v>10.75539930983479</v>
       </c>
       <c r="D5">
-        <v>3.8482278290826</v>
+        <v>5.135273086780199</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21.6031420137333</v>
+        <v>27.1325012903671</v>
       </c>
       <c r="G5">
-        <v>29.549275517858</v>
+        <v>33.89505348473875</v>
       </c>
       <c r="H5">
-        <v>10.13290186182726</v>
+        <v>15.44832146178543</v>
       </c>
       <c r="I5">
-        <v>15.82540672812935</v>
+        <v>24.10984664296998</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.644933176876049</v>
+        <v>10.9237274170063</v>
       </c>
       <c r="M5">
-        <v>11.33577741118701</v>
+        <v>15.07408172517825</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.84526281509748</v>
+        <v>14.46197820127997</v>
       </c>
       <c r="C6">
-        <v>14.05662380152116</v>
+        <v>10.73945627618256</v>
       </c>
       <c r="D6">
-        <v>3.848275693518999</v>
+        <v>5.135258492401841</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>21.57210070633463</v>
+        <v>27.13216719284789</v>
       </c>
       <c r="G6">
-        <v>29.49932649295085</v>
+        <v>33.89247284024806</v>
       </c>
       <c r="H6">
-        <v>10.13089626724535</v>
+        <v>15.45069664946511</v>
       </c>
       <c r="I6">
-        <v>15.83159840121606</v>
+        <v>24.11557885349368</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.64344406757631</v>
+        <v>10.92473548870501</v>
       </c>
       <c r="M6">
-        <v>11.30957684162693</v>
+        <v>15.07019068698651</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.31073393333358</v>
+        <v>14.62569132843229</v>
       </c>
       <c r="C7">
-        <v>14.30518796396938</v>
+        <v>10.84945488568366</v>
       </c>
       <c r="D7">
-        <v>3.847992817552238</v>
+        <v>5.135381614142204</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>21.78909914066435</v>
+        <v>27.13537023665776</v>
       </c>
       <c r="G7">
-        <v>29.84828784318456</v>
+        <v>33.91173959380664</v>
       </c>
       <c r="H7">
-        <v>10.14574528111244</v>
+        <v>15.4345487646158</v>
       </c>
       <c r="I7">
-        <v>15.790310502029</v>
+        <v>24.07636505496617</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.654103018467178</v>
+        <v>10.91788633108775</v>
       </c>
       <c r="M7">
-        <v>11.49062584334763</v>
+        <v>15.09740363530315</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.2494995071341</v>
+        <v>15.33141813020069</v>
       </c>
       <c r="C8">
-        <v>15.35479601783474</v>
+        <v>11.31781001867133</v>
       </c>
       <c r="D8">
-        <v>3.847984379290049</v>
+        <v>5.136461857555289</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>22.78342617157208</v>
+        <v>27.17139581816425</v>
       </c>
       <c r="G8">
-        <v>31.44162477060846</v>
+        <v>34.03024246483425</v>
       </c>
       <c r="H8">
-        <v>10.23498404509445</v>
+        <v>15.37169282183989</v>
       </c>
       <c r="I8">
-        <v>15.65201909473751</v>
+        <v>23.91757199616979</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.70926276877933</v>
+        <v>10.89132445469653</v>
       </c>
       <c r="M8">
-        <v>12.26811638721982</v>
+        <v>15.22242612164275</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.64434578159664</v>
+        <v>16.6420903519607</v>
       </c>
       <c r="C9">
-        <v>17.23821078496524</v>
+        <v>12.16971695674124</v>
       </c>
       <c r="D9">
-        <v>3.852644533314836</v>
+        <v>5.140481885699981</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>24.85339923194639</v>
+        <v>27.32064410130374</v>
       </c>
       <c r="G9">
-        <v>34.7359563637448</v>
+        <v>34.38217952831447</v>
       </c>
       <c r="H9">
-        <v>10.50203027630747</v>
+        <v>15.27885253832042</v>
       </c>
       <c r="I9">
-        <v>15.55960242807674</v>
+        <v>23.65782371458257</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.84785118537211</v>
+        <v>10.85240212260429</v>
       </c>
       <c r="M9">
-        <v>13.84304710404652</v>
+        <v>15.48402163854168</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.89751092961385</v>
+        <v>17.55039123847094</v>
       </c>
       <c r="C10">
-        <v>18.5131783981753</v>
+        <v>12.75108079583391</v>
       </c>
       <c r="D10">
-        <v>3.859185032162246</v>
+        <v>5.144570498975904</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>26.43812565850105</v>
+        <v>27.47788913574175</v>
       </c>
       <c r="G10">
-        <v>37.24340436706937</v>
+        <v>34.71233559569723</v>
       </c>
       <c r="H10">
-        <v>10.76016944195406</v>
+        <v>15.22938179462546</v>
       </c>
       <c r="I10">
-        <v>15.62067089292616</v>
+        <v>23.49886566058971</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.969294569194068</v>
+        <v>10.83183341438739</v>
       </c>
       <c r="M10">
-        <v>15.0726389524948</v>
+        <v>15.68498756348564</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.8718516899451</v>
+        <v>17.94999422771518</v>
       </c>
       <c r="C11">
-        <v>19.0695429828726</v>
+        <v>13.00519650093443</v>
       </c>
       <c r="D11">
-        <v>3.862910802304506</v>
+        <v>5.146671894641316</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>27.17150779717549</v>
+        <v>27.55962550370431</v>
       </c>
       <c r="G11">
-        <v>38.4006686031862</v>
+        <v>34.87766654007971</v>
       </c>
       <c r="H11">
-        <v>10.89221505696964</v>
+        <v>15.21098314139789</v>
       </c>
       <c r="I11">
-        <v>15.68084089690336</v>
+        <v>23.43355845307427</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.029029105494248</v>
+        <v>10.82421868298168</v>
       </c>
       <c r="M11">
-        <v>15.60566172679277</v>
+        <v>15.77804046396367</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.23367169342298</v>
+        <v>18.09923736235928</v>
       </c>
       <c r="C12">
-        <v>19.27684676460478</v>
+        <v>13.09988620391706</v>
       </c>
       <c r="D12">
-        <v>3.864436931327337</v>
+        <v>5.147501920223506</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>27.45094188338618</v>
+        <v>27.59202847229164</v>
       </c>
       <c r="G12">
-        <v>38.84117572437534</v>
+        <v>34.94240674668719</v>
       </c>
       <c r="H12">
-        <v>10.94440989945415</v>
+        <v>15.20460924093188</v>
       </c>
       <c r="I12">
-        <v>15.70864593127447</v>
+        <v>23.40984245747587</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.052313042280489</v>
+        <v>10.82158553677403</v>
       </c>
       <c r="M12">
-        <v>15.80379240929787</v>
+        <v>15.81348800425394</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.15606259374115</v>
+        <v>18.06718940588647</v>
       </c>
       <c r="C13">
-        <v>19.23235002272242</v>
+        <v>13.07956223697213</v>
       </c>
       <c r="D13">
-        <v>3.864102996662196</v>
+        <v>5.147321642230218</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>27.3906851083269</v>
+        <v>27.58498566136155</v>
       </c>
       <c r="G13">
-        <v>38.74620437170711</v>
+        <v>34.9283696860259</v>
       </c>
       <c r="H13">
-        <v>10.93306989443681</v>
+        <v>15.20595554545515</v>
       </c>
       <c r="I13">
-        <v>15.70242859966035</v>
+        <v>23.41490488838438</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.047268611807499</v>
+        <v>10.82214149842102</v>
       </c>
       <c r="M13">
-        <v>15.76128535762676</v>
+        <v>15.805844773497</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.90176113885749</v>
+        <v>17.96231484850924</v>
       </c>
       <c r="C14">
-        <v>19.08666555604166</v>
+        <v>13.01301777724835</v>
       </c>
       <c r="D14">
-        <v>3.863034001716877</v>
+        <v>5.146739497045792</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>27.19446286258581</v>
+        <v>27.56226233508369</v>
       </c>
       <c r="G14">
-        <v>38.4368641421844</v>
+        <v>34.88295028191004</v>
       </c>
       <c r="H14">
-        <v>10.89646471531703</v>
+        <v>15.2104468511804</v>
       </c>
       <c r="I14">
-        <v>15.68302575512253</v>
+        <v>23.43158695142988</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.030931279578333</v>
+        <v>10.82399703522153</v>
       </c>
       <c r="M14">
-        <v>15.62203604334644</v>
+        <v>15.78095267743832</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.74506838669737</v>
+        <v>17.89780214249605</v>
       </c>
       <c r="C15">
-        <v>18.99699033187044</v>
+        <v>12.97205564495358</v>
       </c>
       <c r="D15">
-        <v>3.862394459267667</v>
+        <v>5.146387366280524</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>27.07449326662158</v>
+        <v>27.54853209586108</v>
       </c>
       <c r="G15">
-        <v>38.24767871612402</v>
+        <v>34.85540594873023</v>
       </c>
       <c r="H15">
-        <v>10.87433110295598</v>
+        <v>15.21327524790968</v>
       </c>
       <c r="I15">
-        <v>15.67180543487731</v>
+        <v>23.44193752162397</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.021011184580775</v>
+        <v>10.82516620833441</v>
       </c>
       <c r="M15">
-        <v>15.53626047038002</v>
+        <v>15.76573222711166</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.83282829600829</v>
+        <v>17.52399187177466</v>
       </c>
       <c r="C16">
-        <v>18.47634440660603</v>
+        <v>12.7342610500715</v>
       </c>
       <c r="D16">
-        <v>3.858957248004902</v>
+        <v>5.144437988265721</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>26.39044108584171</v>
+        <v>27.47275149562188</v>
       </c>
       <c r="G16">
-        <v>37.16809737389966</v>
+        <v>34.70183185128921</v>
       </c>
       <c r="H16">
-        <v>10.75184182499711</v>
+        <v>15.23066705893613</v>
       </c>
       <c r="I16">
-        <v>15.61742139956936</v>
+        <v>23.50327519674962</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.965482656704007</v>
+        <v>10.83236610097536</v>
       </c>
       <c r="M16">
-        <v>15.03728093413041</v>
+        <v>15.67893711472047</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.2603262929572</v>
+        <v>17.29109805084362</v>
       </c>
       <c r="C17">
-        <v>18.15090137624546</v>
+        <v>12.58569334423342</v>
       </c>
       <c r="D17">
-        <v>3.857045720773732</v>
+        <v>5.14330363287964</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>25.97392676065327</v>
+        <v>27.42886561243207</v>
       </c>
       <c r="G17">
-        <v>36.50996040633024</v>
+        <v>34.61146744200281</v>
       </c>
       <c r="H17">
-        <v>10.68050709684766</v>
+        <v>15.24239007605806</v>
       </c>
       <c r="I17">
-        <v>15.59261233123396</v>
+        <v>23.54270288015629</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.932580316285167</v>
+        <v>10.83722912143433</v>
       </c>
       <c r="M17">
-        <v>14.7244797762132</v>
+        <v>15.62609203294579</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.92626340362463</v>
+        <v>17.15587112077457</v>
       </c>
       <c r="C18">
-        <v>17.96148931928585</v>
+        <v>12.49926956313348</v>
       </c>
       <c r="D18">
-        <v>3.856016394842956</v>
+        <v>5.142673936304083</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>25.73553580836808</v>
+        <v>27.40458530047623</v>
       </c>
       <c r="G18">
-        <v>36.13298341144453</v>
+        <v>34.56092042238721</v>
       </c>
       <c r="H18">
-        <v>10.64084783133861</v>
+        <v>15.24951914879196</v>
       </c>
       <c r="I18">
-        <v>15.58136977249796</v>
+        <v>23.56603941736979</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.91407720998992</v>
+        <v>10.8401901855508</v>
       </c>
       <c r="M18">
-        <v>14.54208228308181</v>
+        <v>15.59585207481841</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.81233124349104</v>
+        <v>17.10987107614164</v>
       </c>
       <c r="C19">
-        <v>17.89697510072126</v>
+        <v>12.46984271701353</v>
       </c>
       <c r="D19">
-        <v>3.855679722598377</v>
+        <v>5.142464653720694</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>25.65502589687954</v>
+        <v>27.39653002227241</v>
       </c>
       <c r="G19">
-        <v>36.0056191015745</v>
+        <v>34.54405262187545</v>
       </c>
       <c r="H19">
-        <v>10.62765250668514</v>
+        <v>15.25199918775395</v>
       </c>
       <c r="I19">
-        <v>15.57807206591567</v>
+        <v>23.57405369010121</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.907884214635334</v>
+        <v>10.84122091804974</v>
       </c>
       <c r="M19">
-        <v>14.47989716762611</v>
+        <v>15.58564072560956</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.32176330618012</v>
+        <v>17.3160226486061</v>
       </c>
       <c r="C20">
-        <v>18.18577563296701</v>
+        <v>12.6016095661902</v>
       </c>
       <c r="D20">
-        <v>3.857241897865169</v>
+        <v>5.143422035170856</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>26.01814428650651</v>
+        <v>27.43343791703345</v>
       </c>
       <c r="G20">
-        <v>36.57985919459411</v>
+        <v>34.62093937749754</v>
       </c>
       <c r="H20">
-        <v>10.68795829176712</v>
+        <v>15.24110213850008</v>
       </c>
       <c r="I20">
-        <v>15.59493739206437</v>
+        <v>23.5384375018985</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.93603907815354</v>
+        <v>10.83669447363758</v>
       </c>
       <c r="M20">
-        <v>14.75803442764685</v>
+        <v>15.6317016015011</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.97664830805051</v>
+        <v>17.99317635171287</v>
       </c>
       <c r="C21">
-        <v>19.1295481057644</v>
+        <v>13.03260561938277</v>
       </c>
       <c r="D21">
-        <v>3.863344799086191</v>
+        <v>5.146909560628739</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>27.25205186455583</v>
+        <v>27.5688974862014</v>
       </c>
       <c r="G21">
-        <v>38.52766360670977</v>
+        <v>34.89623355492459</v>
       </c>
       <c r="H21">
-        <v>10.90715634144063</v>
+        <v>15.20911152296616</v>
       </c>
       <c r="I21">
-        <v>15.68858571886637</v>
+        <v>23.42665943573012</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.035711787406386</v>
+        <v>10.82344522489499</v>
       </c>
       <c r="M21">
-        <v>15.66303711620465</v>
+        <v>15.78825857368417</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.01665532393682</v>
+        <v>18.42357728854222</v>
       </c>
       <c r="C22">
-        <v>19.72668031818788</v>
+        <v>13.30530040143541</v>
       </c>
       <c r="D22">
-        <v>3.868009483492739</v>
+        <v>5.149388419036581</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>28.06849196645659</v>
+        <v>27.66587716345277</v>
       </c>
       <c r="G22">
-        <v>39.8139376807701</v>
+        <v>35.08856233624428</v>
       </c>
       <c r="H22">
-        <v>11.06323294446015</v>
+        <v>15.19166300634274</v>
       </c>
       <c r="I22">
-        <v>15.77921727597711</v>
+        <v>23.35952223301084</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.104731600119293</v>
+        <v>10.81624542688689</v>
       </c>
       <c r="M22">
-        <v>16.23290223994001</v>
+        <v>15.89179268635349</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.46533792441672</v>
+        <v>18.19501370450577</v>
       </c>
       <c r="C23">
-        <v>19.40976988173972</v>
+        <v>13.16059530907914</v>
       </c>
       <c r="D23">
-        <v>3.865455259677292</v>
+        <v>5.148047294483363</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>27.63184081252422</v>
+        <v>27.61335031574313</v>
       </c>
       <c r="G23">
-        <v>39.12623174464508</v>
+        <v>34.9847935784234</v>
       </c>
       <c r="H23">
-        <v>10.97872958778836</v>
+        <v>15.2006582050225</v>
       </c>
       <c r="I23">
-        <v>15.72803363522019</v>
+        <v>23.39481087786626</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.067533389986065</v>
+        <v>10.81995461869264</v>
       </c>
       <c r="M23">
-        <v>15.930705848899</v>
+        <v>15.8364315003934</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.29400297968288</v>
+        <v>17.30475838091337</v>
       </c>
       <c r="C24">
-        <v>18.17001617940843</v>
+        <v>12.59441698512873</v>
       </c>
       <c r="D24">
-        <v>3.857152989841428</v>
+        <v>5.143368435473232</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>25.99815020797959</v>
+        <v>27.43136781681746</v>
       </c>
       <c r="G24">
-        <v>36.54825359863575</v>
+        <v>34.61665273657603</v>
       </c>
       <c r="H24">
-        <v>10.68458540213721</v>
+        <v>15.24168320240631</v>
       </c>
       <c r="I24">
-        <v>15.59387685134684</v>
+        <v>23.54036379585026</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.934474087226642</v>
+        <v>10.83693567316108</v>
       </c>
       <c r="M24">
-        <v>14.74287236119604</v>
+        <v>15.62916507329436</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.76881349071735</v>
+        <v>16.29646668724314</v>
       </c>
       <c r="C25">
-        <v>16.74772448183091</v>
+        <v>11.94681583648768</v>
       </c>
       <c r="D25">
-        <v>3.850858435359345</v>
+        <v>5.13919327603242</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>24.28159956049936</v>
+        <v>27.27187519078371</v>
       </c>
       <c r="G25">
-        <v>33.82844664980792</v>
+        <v>34.27428032389565</v>
       </c>
       <c r="H25">
-        <v>10.41931387627972</v>
+        <v>15.30069085385428</v>
       </c>
       <c r="I25">
-        <v>15.56342624986863</v>
+        <v>23.72252279455027</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.806989579513664</v>
+        <v>10.86152183607969</v>
       </c>
       <c r="M25">
-        <v>13.36645556044439</v>
+        <v>15.41162029888642</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_244/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_244/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.51809326405486</v>
+        <v>21.74700672002595</v>
       </c>
       <c r="C2">
-        <v>11.44037335774968</v>
+        <v>15.62748538154886</v>
       </c>
       <c r="D2">
-        <v>5.136884144943457</v>
+        <v>3.848290262303317</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.18648119850263</v>
+        <v>23.06135428283896</v>
       </c>
       <c r="G2">
-        <v>34.07047412151667</v>
+        <v>31.88553752883503</v>
       </c>
       <c r="H2">
-        <v>15.35671303431407</v>
+        <v>10.26516567532142</v>
       </c>
       <c r="I2">
-        <v>23.87802735514514</v>
+        <v>15.62592159065877</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.88501830446585</v>
+        <v>6.726225695088932</v>
       </c>
       <c r="M2">
-        <v>15.25745719148344</v>
+        <v>12.47316786228358</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.97142024420893</v>
+        <v>20.27305221916292</v>
       </c>
       <c r="C3">
-        <v>11.07997703539071</v>
+        <v>14.82343313451171</v>
       </c>
       <c r="D3">
-        <v>5.135804338773383</v>
+        <v>3.847751433230499</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.14869940853782</v>
+        <v>22.26468409069347</v>
       </c>
       <c r="G3">
-        <v>33.96289227374837</v>
+        <v>30.61146128614068</v>
       </c>
       <c r="H3">
-        <v>15.4024602874613</v>
+        <v>10.18445461628078</v>
       </c>
       <c r="I3">
-        <v>23.99662326291098</v>
+        <v>15.71463923755163</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.90430630106511</v>
+        <v>6.679307851941872</v>
       </c>
       <c r="M3">
-        <v>15.1571382546325</v>
+        <v>11.87203834210367</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.62759853051488</v>
+        <v>19.31611711575352</v>
       </c>
       <c r="C4">
-        <v>10.8507329561723</v>
+        <v>14.30807094533805</v>
       </c>
       <c r="D4">
-        <v>5.135383349924752</v>
+        <v>3.847990177371111</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27.13541968662009</v>
+        <v>21.79165897905375</v>
       </c>
       <c r="G4">
-        <v>33.91198337104156</v>
+        <v>29.85240147349554</v>
       </c>
       <c r="H4">
-        <v>15.43436440037365</v>
+        <v>10.14593166752257</v>
       </c>
       <c r="I4">
-        <v>24.07591398217671</v>
+        <v>15.78985044721363</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.91780819101911</v>
+        <v>6.654232125283988</v>
       </c>
       <c r="M4">
-        <v>15.09772482070409</v>
+        <v>11.49273320665819</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.48565241196841</v>
+        <v>18.9129982122475</v>
       </c>
       <c r="C5">
-        <v>10.75539930983479</v>
+        <v>14.09270497999934</v>
       </c>
       <c r="D5">
-        <v>5.135273086780199</v>
+        <v>3.848227829082663</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.1325012903671</v>
+        <v>21.60314201373314</v>
       </c>
       <c r="G5">
-        <v>33.89505348473875</v>
+        <v>29.54927551785785</v>
       </c>
       <c r="H5">
-        <v>15.44832146178543</v>
+        <v>10.13290186182723</v>
       </c>
       <c r="I5">
-        <v>24.10984664296998</v>
+        <v>15.82540672812914</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.9237274170063</v>
+        <v>6.64493317687618</v>
       </c>
       <c r="M5">
-        <v>15.07408172517825</v>
+        <v>11.335777411187</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.46197820127997</v>
+        <v>18.8452628150975</v>
       </c>
       <c r="C6">
-        <v>10.73945627618256</v>
+        <v>14.0566238015211</v>
       </c>
       <c r="D6">
-        <v>5.135258492401841</v>
+        <v>3.848275693519051</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>27.13216719284789</v>
+        <v>21.57210070633462</v>
       </c>
       <c r="G6">
-        <v>33.89247284024806</v>
+        <v>29.49932649295079</v>
       </c>
       <c r="H6">
-        <v>15.45069664946511</v>
+        <v>10.13089626724536</v>
       </c>
       <c r="I6">
-        <v>24.11557885349368</v>
+        <v>15.83159840121606</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.92473548870501</v>
+        <v>6.643444067576364</v>
       </c>
       <c r="M6">
-        <v>15.07019068698651</v>
+        <v>11.30957684162691</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.62569132843229</v>
+        <v>19.31073393333355</v>
       </c>
       <c r="C7">
-        <v>10.84945488568366</v>
+        <v>14.30518796396909</v>
       </c>
       <c r="D7">
-        <v>5.135381614142204</v>
+        <v>3.847992817552172</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>27.13537023665776</v>
+        <v>21.78909914066451</v>
       </c>
       <c r="G7">
-        <v>33.91173959380664</v>
+        <v>29.8482878431847</v>
       </c>
       <c r="H7">
-        <v>15.4345487646158</v>
+        <v>10.14574528111246</v>
       </c>
       <c r="I7">
-        <v>24.07636505496617</v>
+        <v>15.79031050202908</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.91788633108775</v>
+        <v>6.654103018467151</v>
       </c>
       <c r="M7">
-        <v>15.09740363530315</v>
+        <v>11.49062584334765</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.33141813020069</v>
+        <v>21.2494995071341</v>
       </c>
       <c r="C8">
-        <v>11.31781001867133</v>
+        <v>15.35479601783469</v>
       </c>
       <c r="D8">
-        <v>5.136461857555289</v>
+        <v>3.847984379290053</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.17139581816425</v>
+        <v>22.78342617157211</v>
       </c>
       <c r="G8">
-        <v>34.03024246483425</v>
+        <v>31.44162477060845</v>
       </c>
       <c r="H8">
-        <v>15.37169282183989</v>
+        <v>10.2349840450945</v>
       </c>
       <c r="I8">
-        <v>23.91757199616979</v>
+        <v>15.65201909473753</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.89132445469653</v>
+        <v>6.709262768779325</v>
       </c>
       <c r="M8">
-        <v>15.22242612164275</v>
+        <v>12.26811638721981</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.6420903519607</v>
+        <v>24.64434578159655</v>
       </c>
       <c r="C9">
-        <v>12.16971695674124</v>
+        <v>17.2382107849652</v>
       </c>
       <c r="D9">
-        <v>5.140481885699981</v>
+        <v>3.852644533314777</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>27.32064410130374</v>
+        <v>24.85339923194654</v>
       </c>
       <c r="G9">
-        <v>34.38217952831447</v>
+        <v>34.735956363745</v>
       </c>
       <c r="H9">
-        <v>15.27885253832042</v>
+        <v>10.50203027630756</v>
       </c>
       <c r="I9">
-        <v>23.65782371458257</v>
+        <v>15.55960242807696</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.85240212260429</v>
+        <v>6.847851185372201</v>
       </c>
       <c r="M9">
-        <v>15.48402163854168</v>
+        <v>13.84304710404647</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.55039123847094</v>
+        <v>26.89751092961388</v>
       </c>
       <c r="C10">
-        <v>12.75108079583391</v>
+        <v>18.51317839817531</v>
       </c>
       <c r="D10">
-        <v>5.144570498975904</v>
+        <v>3.859185032162304</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>27.47788913574175</v>
+        <v>26.438125658501</v>
       </c>
       <c r="G10">
-        <v>34.71233559569723</v>
+        <v>37.24340436706937</v>
       </c>
       <c r="H10">
-        <v>15.22938179462546</v>
+        <v>10.76016944195404</v>
       </c>
       <c r="I10">
-        <v>23.49886566058971</v>
+        <v>15.62067089292614</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.83183341438739</v>
+        <v>6.969294569194052</v>
       </c>
       <c r="M10">
-        <v>15.68498756348564</v>
+        <v>15.0726389524948</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.94999422771518</v>
+        <v>27.87185168994499</v>
       </c>
       <c r="C11">
-        <v>13.00519650093443</v>
+        <v>19.06954298287256</v>
       </c>
       <c r="D11">
-        <v>5.146671894641316</v>
+        <v>3.862910802304715</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>27.55962550370431</v>
+        <v>27.1715077971756</v>
       </c>
       <c r="G11">
-        <v>34.87766654007971</v>
+        <v>38.40066860318633</v>
       </c>
       <c r="H11">
-        <v>15.21098314139789</v>
+        <v>10.89221505696974</v>
       </c>
       <c r="I11">
-        <v>23.43355845307427</v>
+        <v>15.68084089690363</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.82421868298168</v>
+        <v>7.029029105494248</v>
       </c>
       <c r="M11">
-        <v>15.77804046396367</v>
+        <v>15.60566172679274</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.09923736235928</v>
+        <v>28.23367169342301</v>
       </c>
       <c r="C12">
-        <v>13.09988620391706</v>
+        <v>19.27684676460492</v>
       </c>
       <c r="D12">
-        <v>5.147501920223506</v>
+        <v>3.864436931327273</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>27.59202847229164</v>
+        <v>27.45094188338631</v>
       </c>
       <c r="G12">
-        <v>34.94240674668719</v>
+        <v>38.84117572437562</v>
       </c>
       <c r="H12">
-        <v>15.20460924093188</v>
+        <v>10.94440989945416</v>
       </c>
       <c r="I12">
-        <v>23.40984245747587</v>
+        <v>15.70864593127449</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.82158553677403</v>
+        <v>7.052313042280485</v>
       </c>
       <c r="M12">
-        <v>15.81348800425394</v>
+        <v>15.80379240929793</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.06718940588647</v>
+        <v>28.15606259374109</v>
       </c>
       <c r="C13">
-        <v>13.07956223697213</v>
+        <v>19.23235002272247</v>
       </c>
       <c r="D13">
-        <v>5.147321642230218</v>
+        <v>3.864102996662139</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>27.58498566136155</v>
+        <v>27.39068510832694</v>
       </c>
       <c r="G13">
-        <v>34.9283696860259</v>
+        <v>38.74620437170713</v>
       </c>
       <c r="H13">
-        <v>15.20595554545515</v>
+        <v>10.9330698944368</v>
       </c>
       <c r="I13">
-        <v>23.41490488838438</v>
+        <v>15.70242859966037</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.82214149842102</v>
+        <v>7.047268611807525</v>
       </c>
       <c r="M13">
-        <v>15.805844773497</v>
+        <v>15.76128535762674</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.96231484850924</v>
+        <v>27.90176113885753</v>
       </c>
       <c r="C14">
-        <v>13.01301777724835</v>
+        <v>19.08666555604178</v>
       </c>
       <c r="D14">
-        <v>5.146739497045792</v>
+        <v>3.863034001716976</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>27.56226233508369</v>
+        <v>27.19446286258578</v>
       </c>
       <c r="G14">
-        <v>34.88295028191004</v>
+        <v>38.43686414218448</v>
       </c>
       <c r="H14">
-        <v>15.2104468511804</v>
+        <v>10.89646471531702</v>
       </c>
       <c r="I14">
-        <v>23.43158695142988</v>
+        <v>15.68302575512249</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.82399703522153</v>
+        <v>7.030931279578351</v>
       </c>
       <c r="M14">
-        <v>15.78095267743832</v>
+        <v>15.62203604334642</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.89780214249605</v>
+        <v>27.74506838669744</v>
       </c>
       <c r="C15">
-        <v>12.97205564495358</v>
+        <v>18.99699033187041</v>
       </c>
       <c r="D15">
-        <v>5.146387366280524</v>
+        <v>3.862394459267667</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>27.54853209586108</v>
+        <v>27.07449326662166</v>
       </c>
       <c r="G15">
-        <v>34.85540594873023</v>
+        <v>38.24767871612417</v>
       </c>
       <c r="H15">
-        <v>15.21327524790968</v>
+        <v>10.87433110295602</v>
       </c>
       <c r="I15">
-        <v>23.44193752162397</v>
+        <v>15.67180543487735</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.82516620833441</v>
+        <v>7.021011184580816</v>
       </c>
       <c r="M15">
-        <v>15.76573222711166</v>
+        <v>15.53626047038003</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.52399187177466</v>
+        <v>26.83282829600832</v>
       </c>
       <c r="C16">
-        <v>12.7342610500715</v>
+        <v>18.47634440660605</v>
       </c>
       <c r="D16">
-        <v>5.144437988265721</v>
+        <v>3.858957248004897</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>27.47275149562188</v>
+        <v>26.39044108584171</v>
       </c>
       <c r="G16">
-        <v>34.70183185128921</v>
+        <v>37.16809737389966</v>
       </c>
       <c r="H16">
-        <v>15.23066705893613</v>
+        <v>10.75184182499712</v>
       </c>
       <c r="I16">
-        <v>23.50327519674962</v>
+        <v>15.61742139956936</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.83236610097536</v>
+        <v>6.965482656703998</v>
       </c>
       <c r="M16">
-        <v>15.67893711472047</v>
+        <v>15.03728093413044</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.29109805084362</v>
+        <v>26.26032629295722</v>
       </c>
       <c r="C17">
-        <v>12.58569334423342</v>
+        <v>18.15090137624551</v>
       </c>
       <c r="D17">
-        <v>5.14330363287964</v>
+        <v>3.857045720773897</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>27.42886561243207</v>
+        <v>25.97392676065334</v>
       </c>
       <c r="G17">
-        <v>34.61146744200281</v>
+        <v>36.50996040633036</v>
       </c>
       <c r="H17">
-        <v>15.24239007605806</v>
+        <v>10.68050709684766</v>
       </c>
       <c r="I17">
-        <v>23.54270288015629</v>
+        <v>15.59261233123403</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.83722912143433</v>
+        <v>6.932580316285161</v>
       </c>
       <c r="M17">
-        <v>15.62609203294579</v>
+        <v>14.72447977621321</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.15587112077457</v>
+        <v>25.92626340362463</v>
       </c>
       <c r="C18">
-        <v>12.49926956313348</v>
+        <v>17.96148931928584</v>
       </c>
       <c r="D18">
-        <v>5.142673936304083</v>
+        <v>3.856016394843072</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>27.40458530047623</v>
+        <v>25.73553580836809</v>
       </c>
       <c r="G18">
-        <v>34.56092042238721</v>
+        <v>36.13298341144455</v>
       </c>
       <c r="H18">
-        <v>15.24951914879196</v>
+        <v>10.64084783133863</v>
       </c>
       <c r="I18">
-        <v>23.56603941736979</v>
+        <v>15.58136977249797</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.8401901855508</v>
+        <v>6.914077209989963</v>
       </c>
       <c r="M18">
-        <v>15.59585207481841</v>
+        <v>14.54208228308179</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.10987107614164</v>
+        <v>25.81233124349099</v>
       </c>
       <c r="C19">
-        <v>12.46984271701353</v>
+        <v>17.89697510072149</v>
       </c>
       <c r="D19">
-        <v>5.142464653720694</v>
+        <v>3.855679722598418</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>27.39653002227241</v>
+        <v>25.65502589687955</v>
       </c>
       <c r="G19">
-        <v>34.54405262187545</v>
+        <v>36.00561910157454</v>
       </c>
       <c r="H19">
-        <v>15.25199918775395</v>
+        <v>10.62765250668516</v>
       </c>
       <c r="I19">
-        <v>23.57405369010121</v>
+        <v>15.57807206591572</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.84122091804974</v>
+        <v>6.907884214635403</v>
       </c>
       <c r="M19">
-        <v>15.58564072560956</v>
+        <v>14.47989716762609</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.3160226486061</v>
+        <v>26.32176330618008</v>
       </c>
       <c r="C20">
-        <v>12.6016095661902</v>
+        <v>18.18577563296697</v>
       </c>
       <c r="D20">
-        <v>5.143422035170856</v>
+        <v>3.857241897865094</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>27.43343791703345</v>
+        <v>26.01814428650655</v>
       </c>
       <c r="G20">
-        <v>34.62093937749754</v>
+        <v>36.57985919459421</v>
       </c>
       <c r="H20">
-        <v>15.24110213850008</v>
+        <v>10.68795829176707</v>
       </c>
       <c r="I20">
-        <v>23.5384375018985</v>
+        <v>15.59493739206441</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.83669447363758</v>
+        <v>6.936039078153433</v>
       </c>
       <c r="M20">
-        <v>15.6317016015011</v>
+        <v>14.75803442764687</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.99317635171287</v>
+        <v>27.9766483080505</v>
       </c>
       <c r="C21">
-        <v>13.03260561938277</v>
+        <v>19.12954810576447</v>
       </c>
       <c r="D21">
-        <v>5.146909560628739</v>
+        <v>3.86334479908637</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>27.5688974862014</v>
+        <v>27.25205186455584</v>
       </c>
       <c r="G21">
-        <v>34.89623355492459</v>
+        <v>38.52766360670982</v>
       </c>
       <c r="H21">
-        <v>15.20911152296616</v>
+        <v>10.90715634144061</v>
       </c>
       <c r="I21">
-        <v>23.42665943573012</v>
+        <v>15.68858571886636</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.82344522489499</v>
+        <v>7.035711787406323</v>
       </c>
       <c r="M21">
-        <v>15.78825857368417</v>
+        <v>15.66303711620466</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.42357728854222</v>
+        <v>29.01665532393677</v>
       </c>
       <c r="C22">
-        <v>13.30530040143541</v>
+        <v>19.72668031818778</v>
       </c>
       <c r="D22">
-        <v>5.149388419036581</v>
+        <v>3.868009483492786</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>27.66587716345277</v>
+        <v>28.06849196645662</v>
       </c>
       <c r="G22">
-        <v>35.08856233624428</v>
+        <v>39.8139376807701</v>
       </c>
       <c r="H22">
-        <v>15.19166300634274</v>
+        <v>11.06323294446023</v>
       </c>
       <c r="I22">
-        <v>23.35952223301084</v>
+        <v>15.77921727597724</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.81624542688689</v>
+        <v>7.104731600119236</v>
       </c>
       <c r="M22">
-        <v>15.89179268635349</v>
+        <v>16.23290223993997</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.19501370450577</v>
+        <v>28.46533792441671</v>
       </c>
       <c r="C23">
-        <v>13.16059530907914</v>
+        <v>19.40976988173972</v>
       </c>
       <c r="D23">
-        <v>5.148047294483363</v>
+        <v>3.865455259677305</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>27.61335031574313</v>
+        <v>27.63184081252424</v>
       </c>
       <c r="G23">
-        <v>34.9847935784234</v>
+        <v>39.12623174464511</v>
       </c>
       <c r="H23">
-        <v>15.2006582050225</v>
+        <v>10.97872958778834</v>
       </c>
       <c r="I23">
-        <v>23.39481087786626</v>
+        <v>15.72803363522016</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.81995461869264</v>
+        <v>7.067533389986111</v>
       </c>
       <c r="M23">
-        <v>15.8364315003934</v>
+        <v>15.93070584889899</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.30475838091337</v>
+        <v>26.29400297968286</v>
       </c>
       <c r="C24">
-        <v>12.59441698512873</v>
+        <v>18.17001617940848</v>
       </c>
       <c r="D24">
-        <v>5.143368435473232</v>
+        <v>3.857152989841344</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>27.43136781681746</v>
+        <v>25.99815020797969</v>
       </c>
       <c r="G24">
-        <v>34.61665273657603</v>
+        <v>36.54825359863595</v>
       </c>
       <c r="H24">
-        <v>15.24168320240631</v>
+        <v>10.68458540213724</v>
       </c>
       <c r="I24">
-        <v>23.54036379585026</v>
+        <v>15.59387685134685</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.83693567316108</v>
+        <v>6.934474087226642</v>
       </c>
       <c r="M24">
-        <v>15.62916507329436</v>
+        <v>14.74287236119603</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.29646668724314</v>
+        <v>23.76881349071731</v>
       </c>
       <c r="C25">
-        <v>11.94681583648768</v>
+        <v>16.74772448183091</v>
       </c>
       <c r="D25">
-        <v>5.13919327603242</v>
+        <v>3.850858435359406</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>27.27187519078371</v>
+        <v>24.28159956049945</v>
       </c>
       <c r="G25">
-        <v>34.27428032389565</v>
+        <v>33.82844664980805</v>
       </c>
       <c r="H25">
-        <v>15.30069085385428</v>
+        <v>10.41931387627978</v>
       </c>
       <c r="I25">
-        <v>23.72252279455027</v>
+        <v>15.56342624986874</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.86152183607969</v>
+        <v>6.80698957951367</v>
       </c>
       <c r="M25">
-        <v>15.41162029888642</v>
+        <v>13.36645556044438</v>
       </c>
       <c r="N25">
         <v>0</v>
